--- a/status_null_error1.xlsx
+++ b/status_null_error1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -72,10 +72,13 @@
     <t>hanako</t>
   </si>
   <si>
-    <t>ゆい</t>
-  </si>
-  <si>
-    <t>はるか</t>
+    <t>ゆい１1</t>
+  </si>
+  <si>
+    <t>はるか1１</t>
+  </si>
+  <si>
+    <t>は</t>
   </si>
 </sst>
 </file>
@@ -498,9 +501,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="6">
-        <v>5.0</v>
-      </c>
+      <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
@@ -508,16 +509,16 @@
         <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="6">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="G6" s="6">
-        <v>44444.0</v>
+        <v>444441.0</v>
       </c>
       <c r="H6" s="1"/>
     </row>
